--- a/InputData/bldgs/PPEIdtICEaT/Pot Perc Eff Impr due to Impr Contractor Edu and Training.xlsx
+++ b/InputData/bldgs/PPEIdtICEaT/Pot Perc Eff Impr due to Impr Contractor Edu and Training.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\bldgs\PPEIdtICEaT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\PPEIdtICEaT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4C0B9-4359-4633-A27C-0363D87B4FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20100" windowHeight="7335"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="PPEIdtICEaT" sheetId="2" r:id="rId3"/>
+    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
+    <sheet name="PPEIdtICEaT" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Source:</t>
   </si>
@@ -138,12 +150,36 @@
   </si>
   <si>
     <t>Building Component Efficiency Improvement (dimensionless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This spreadsheet uses a very particular study. </t>
+  </si>
+  <si>
+    <t>It's done in Wisconsin where the authors use an educational seminar for builders</t>
+  </si>
+  <si>
+    <t>then they follow up with phone surveys to see what the builders actually implemented</t>
+  </si>
+  <si>
+    <t>then they use those results to try and estimate how much energy those builders decisions saved</t>
+  </si>
+  <si>
+    <t>It's all very niche and a bit subjective</t>
+  </si>
+  <si>
+    <t>That said, I did a quick literature search and didn't find anything that I thought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">would give us better or more Texas-specific numbers. </t>
+  </si>
+  <si>
+    <t>Since this is a "low" priority sheet, I will leave it alone.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -243,11 +279,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -343,6 +379,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -378,6 +431,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +685,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -623,10 +693,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -649,11 +721,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -856,13 +928,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88FAD1D-D122-482D-A160-2A203D0171A7}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -871,7 +1000,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="13" t="s">

--- a/InputData/bldgs/PPEIdtICEaT/Pot Perc Eff Impr due to Impr Contractor Edu and Training.xlsx
+++ b/InputData/bldgs/PPEIdtICEaT/Pot Perc Eff Impr due to Impr Contractor Edu and Training.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\PPEIdtICEaT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\bldgs\PPEIdtICEaT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4C0B9-4359-4633-A27C-0363D87B4FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20100" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
-    <sheet name="PPEIdtICEaT" sheetId="2" r:id="rId4"/>
+    <sheet name="PPEIdtICEaT" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Source:</t>
   </si>
@@ -150,36 +138,12 @@
   </si>
   <si>
     <t>Building Component Efficiency Improvement (dimensionless)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This spreadsheet uses a very particular study. </t>
-  </si>
-  <si>
-    <t>It's done in Wisconsin where the authors use an educational seminar for builders</t>
-  </si>
-  <si>
-    <t>then they follow up with phone surveys to see what the builders actually implemented</t>
-  </si>
-  <si>
-    <t>then they use those results to try and estimate how much energy those builders decisions saved</t>
-  </si>
-  <si>
-    <t>It's all very niche and a bit subjective</t>
-  </si>
-  <si>
-    <t>That said, I did a quick literature search and didn't find anything that I thought</t>
-  </si>
-  <si>
-    <t xml:space="preserve">would give us better or more Texas-specific numbers. </t>
-  </si>
-  <si>
-    <t>Since this is a "low" priority sheet, I will leave it alone.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -279,11 +243,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -379,23 +343,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -431,23 +378,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +615,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -693,12 +623,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -721,11 +649,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -928,70 +856,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88FAD1D-D122-482D-A160-2A203D0171A7}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1000,7 +871,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="13" t="s">

--- a/InputData/bldgs/PPEIdtICEaT/Pot Perc Eff Impr due to Impr Contractor Edu and Training.xlsx
+++ b/InputData/bldgs/PPEIdtICEaT/Pot Perc Eff Impr due to Impr Contractor Edu and Training.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\PPEIdtICEaT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4C0B9-4359-4633-A27C-0363D87B4FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4903885-84DE-4A4D-AECB-CEC289A21881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
-    <sheet name="PPEIdtICEaT" sheetId="2" r:id="rId4"/>
+    <sheet name="PPEIdtICEaT" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Source:</t>
   </si>
@@ -150,30 +150,6 @@
   </si>
   <si>
     <t>Building Component Efficiency Improvement (dimensionless)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This spreadsheet uses a very particular study. </t>
-  </si>
-  <si>
-    <t>It's done in Wisconsin where the authors use an educational seminar for builders</t>
-  </si>
-  <si>
-    <t>then they follow up with phone surveys to see what the builders actually implemented</t>
-  </si>
-  <si>
-    <t>then they use those results to try and estimate how much energy those builders decisions saved</t>
-  </si>
-  <si>
-    <t>It's all very niche and a bit subjective</t>
-  </si>
-  <si>
-    <t>That said, I did a quick literature search and didn't find anything that I thought</t>
-  </si>
-  <si>
-    <t xml:space="preserve">would give us better or more Texas-specific numbers. </t>
-  </si>
-  <si>
-    <t>Since this is a "low" priority sheet, I will leave it alone.</t>
   </si>
 </sst>
 </file>
@@ -630,17 +606,17 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="81.85546875" customWidth="1"/>
+    <col min="2" max="2" width="81.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,37 +624,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -700,26 +676,26 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="15" t="s">
         <v>13</v>
@@ -727,7 +703,7 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -741,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -756,7 +732,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -771,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -786,7 +762,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -803,18 +779,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>700</v>
       </c>
@@ -825,18 +801,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <f>D8/A11</f>
         <v>3.7142857142857144E-2</v>
@@ -844,78 +820,78 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
@@ -928,61 +904,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88FAD1D-D122-482D-A160-2A203D0171A7}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -993,13 +914,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -1007,7 +928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1015,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1023,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +953,7 @@
         <v>3.7142857142857144E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1040,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>

--- a/InputData/bldgs/PPEIdtICEaT/Pot Perc Eff Impr due to Impr Contractor Edu and Training.xlsx
+++ b/InputData/bldgs/PPEIdtICEaT/Pot Perc Eff Impr due to Impr Contractor Edu and Training.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\bldgs\PPEIdtICEaT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4903885-84DE-4A4D-AECB-CEC289A21881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20100" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="PPEIdtICEaT" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -155,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -255,11 +243,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -355,23 +343,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -407,23 +378,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,24 +553,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="81.81640625" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,44 +578,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -669,41 +623,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -717,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -732,7 +684,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -747,7 +699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -762,7 +714,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -779,18 +731,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>700</v>
       </c>
@@ -801,18 +753,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>D8/A11</f>
         <v>3.7142857142857144E-2</v>
@@ -820,78 +772,78 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
@@ -904,31 +856,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -936,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -944,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -953,7 +903,7 @@
         <v>3.7142857142857144E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -961,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -969,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
